--- a/NepalDistrictData.xlsx
+++ b/NepalDistrictData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23064" windowHeight="10200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23064" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Distrcits" sheetId="2" r:id="rId1"/>
@@ -963,7 +963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3223,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
